--- a/PEP3.xlsx
+++ b/PEP3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marha\Documents\Skole\TEP4215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skole\TEP4215\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29DAA22-14AD-460A-90A3-697268701638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B1697-BD15-41BB-AAC8-49DB201E4F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFFFD892-900B-4637-8193-7E9F7EBA5F8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFFFD892-900B-4637-8193-7E9F7EBA5F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -626,7 +626,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2251,7 +2251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2569,13 +2569,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2418BEC-7A29-4AC8-A6FA-216FDF0E2686}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <v>40</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J18">
         <f>J14</f>
         <v>1600</v>

--- a/PEP3.xlsx
+++ b/PEP3.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skole\TEP4215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marha\Documents\Skole\TEP4215\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B1697-BD15-41BB-AAC8-49DB201E4F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74D8FE-E5B7-474F-8785-4D456D21EDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFFFD892-900B-4637-8193-7E9F7EBA5F8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BFFFD892-900B-4637-8193-7E9F7EBA5F8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task 1&amp;2" sheetId="1" r:id="rId1"/>
+    <sheet name="Task 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>H1</t>
   </si>
@@ -119,7 +120,46 @@
     <t>Cold side</t>
   </si>
   <si>
-    <t>detlaT 0</t>
+    <t>Plotting of line ^</t>
+  </si>
+  <si>
+    <t>delta T = 0</t>
+  </si>
+  <si>
+    <t>delta T = 10</t>
+  </si>
+  <si>
+    <t>delta T = 20</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>C2a</t>
+  </si>
+  <si>
+    <t>C2b</t>
+  </si>
+  <si>
+    <t>C2c</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Pinch around 1458,3 Duty</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -143,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,18 +204,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -198,18 +244,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,7 +310,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -322,7 +402,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$J$4:$J$7</c:f>
+              <c:f>'Task 1&amp;2'!$J$4:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -343,7 +423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$I$4:$I$7</c:f>
+              <c:f>'Task 1&amp;2'!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -389,28 +469,28 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$J$12:$J$15</c:f>
+              <c:f>'Task 1&amp;2'!$J$12:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9850</c:v>
+                  <c:v>10750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9250</c:v>
+                  <c:v>10150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>850</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$I$12:$I$15</c:f>
+              <c:f>'Task 1&amp;2'!$I$12:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -433,6 +513,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC2A-487F-9E20-DDDE85D8BF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 1&amp;2'!$J$17:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1&amp;2'!$L$17:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2235-4732-8908-BF5C69B93505}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,7 +761,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -718,7 +853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$J$5:$J$7</c:f>
+              <c:f>'Task 1&amp;2'!$J$5:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -736,7 +871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$I$5:$I$7</c:f>
+              <c:f>'Task 1&amp;2'!$I$5:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -779,25 +914,25 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$J$13:$J$15</c:f>
+              <c:f>'Task 1&amp;2'!$J$13:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9250</c:v>
+                  <c:v>10150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>850</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$I$13:$I$15</c:f>
+              <c:f>'Task 1&amp;2'!$I$13:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -840,22 +975,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$J$17:$J$18</c:f>
+              <c:f>'Task 1&amp;2'!$J$17:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1601</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$K$17:$K$18</c:f>
+              <c:f>'Task 1&amp;2'!$K$17:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1065,6 +1200,825 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 3'!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 3'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E837-45DA-90F0-075C25A9A1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 3'!$J$10:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11274.999283333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11208.332616666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2508.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 3'!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E837-45DA-90F0-075C25A9A1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 3'!$J$18:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2508.3343333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2508.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 3'!$L$18:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E837-45DA-90F0-075C25A9A1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1694818767"/>
+        <c:axId val="1694823567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1694818767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694823567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1694823567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694818767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 3'!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 3'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-902D-4732-A0F9-634354F95E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 3'!$J$10:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11274.999283333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11208.332616666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2508.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 3'!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-902D-4732-A0F9-634354F95E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 3'!$J$18:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2508.3343333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2508.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 3'!$K$18:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-902D-4732-A0F9-634354F95E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1694818767"/>
+        <c:axId val="1694823567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1694818767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694823567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1694823567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694818767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1139,6 +2093,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1656,6 +2684,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2250,8 +4310,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144268FB-4096-7572-8C08-D2C4AA8C3D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3D6467-9F45-4984-8C5A-8EFC95DE8AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2567,15 +4706,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2418BEC-7A29-4AC8-A6FA-216FDF0E2686}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="77" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2591,14 +4735,14 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2615,21 +4759,21 @@
         <f>C3*(D3-E3)</f>
         <v>6500</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +4806,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +4839,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2728,12 +4872,12 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <f>SUM(F3:F6)</f>
         <v>-100</v>
       </c>
@@ -2750,45 +4894,45 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
         <v>30</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>40</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <f>IF(F7&gt;0,F7,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>240</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>240</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <f>IF(F7&lt;0,F7,0)</f>
         <v>-100</v>
       </c>
-      <c r="T9" s="6"/>
+      <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2796,23 +4940,21 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2836,7 +4978,7 @@
       </c>
       <c r="J12" s="2">
         <f>J13+K12</f>
-        <v>9850</v>
+        <v>10750</v>
       </c>
       <c r="K12" s="2">
         <f>C6*(I12-H12)</f>
@@ -2844,7 +4986,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2868,7 +5010,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ref="J13:J15" si="2">J14+K13</f>
-        <v>9250</v>
+        <v>10150</v>
       </c>
       <c r="K13" s="2">
         <f>(C5+C6)*(I13-H13)</f>
@@ -2876,7 +5018,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H14" s="2">
         <v>40</v>
       </c>
@@ -2885,7 +5027,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K14" s="2">
         <f>C6*(I14-H14)</f>
@@ -2893,7 +5035,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2906,14 +5048,14 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="K15" s="2">
-        <v>850</v>
+        <v>1750</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1750</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +5069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2940,21 +5082,556 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <f>J14+1</f>
-        <v>1601</v>
-      </c>
-      <c r="K17">
+        <v>2501</v>
+      </c>
+      <c r="K17" s="6">
         <v>120</v>
       </c>
+      <c r="L17" s="6">
+        <v>300</v>
+      </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J18">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="6">
         <f>J14</f>
-        <v>1600</v>
-      </c>
-      <c r="K18">
+        <v>2500</v>
+      </c>
+      <c r="K18" s="6">
         <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>570</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1125</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="7">
+        <v>670</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1225</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I25" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FE521-C5A9-4C6D-9EED-19694A2623F8}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3*(D3-E3)</f>
+        <v>6500</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>300</v>
+      </c>
+      <c r="E4" s="3">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F8" si="0">C4*(D4-E4)</f>
+        <v>2400</v>
+      </c>
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3">
+        <v>300</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J5" si="1">J5+K4</f>
+        <v>8900</v>
+      </c>
+      <c r="K4" s="3">
+        <f>C4*(I4-H4)</f>
+        <v>1000</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2">
+        <v>180</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-6300</v>
+      </c>
+      <c r="H5" s="3">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3">
+        <v>200</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>7900</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(C4+C3)*(I5-H5)</f>
+        <v>7800</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <f>25/6</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <f>C6*(D6-E6)</f>
+        <v>-250.00000000000003</v>
+      </c>
+      <c r="H6" s="3">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3">
+        <v>70</v>
+      </c>
+      <c r="J6" s="3">
+        <f>J7+K6</f>
+        <v>100</v>
+      </c>
+      <c r="K6" s="3">
+        <f>C4*(I6-H6)</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-2250</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>60</v>
+      </c>
+      <c r="J7" s="3">
+        <f>J8+K7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <f>10/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>220</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <f>SUM(F3:F8)</f>
+        <v>-100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7">
+        <f>IF(F9&gt;0,F9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>180</v>
+      </c>
+      <c r="I10" s="2">
+        <v>220</v>
+      </c>
+      <c r="J10" s="10">
+        <f>K10+J11</f>
+        <v>11274.999283333333</v>
+      </c>
+      <c r="K10" s="10">
+        <f>(I10-H10)*C8</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>240</v>
+      </c>
+      <c r="E11" s="7">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IF(F9&lt;0,F9,0)</f>
+        <v>-100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>100.00001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>180</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" ref="J11:J15" si="2">K11+J12</f>
+        <v>11208.332616666667</v>
+      </c>
+      <c r="K11" s="10">
+        <f>(I11-H11)*(C5+C8)</f>
+        <v>5733.3326166666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100.00001</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>5475</v>
+      </c>
+      <c r="K12" s="10">
+        <f>-F7</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="2">
+        <v>90</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>3225</v>
+      </c>
+      <c r="K13" s="10">
+        <f>(I13-H13)*(C8+C5)</f>
+        <v>716.66666666666674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
+        <v>90</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="2"/>
+        <v>2508.3333333333335</v>
+      </c>
+      <c r="K14" s="10">
+        <f>(I14-H14)*C6</f>
+        <v>208.33333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>40</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="14">
+        <f>J19+0.001</f>
+        <v>2508.3343333333337</v>
+      </c>
+      <c r="K18" s="6">
+        <v>120</v>
+      </c>
+      <c r="L18" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="14">
+        <f>J14</f>
+        <v>2508.3333333333335</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1700</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1175</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1775</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="11">
+        <v>-75</v>
+      </c>
+      <c r="I26" s="11">
+        <v>-75</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-75</v>
       </c>
     </row>
   </sheetData>

--- a/PEP3.xlsx
+++ b/PEP3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marha\Documents\Skole\TEP4215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skole\TEP4215\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74D8FE-E5B7-474F-8785-4D456D21EDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659FF37-6E80-46BA-8CCD-3743A480ADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BFFFD892-900B-4637-8193-7E9F7EBA5F8A}"/>
+    <workbookView xWindow="-38510" yWindow="-20" windowWidth="38620" windowHeight="21220" xr2:uid="{BFFFD892-900B-4637-8193-7E9F7EBA5F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1&amp;2" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -283,7 +283,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -310,7 +309,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -474,16 +473,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10750</c:v>
+                  <c:v>10125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10150</c:v>
+                  <c:v>9525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1750</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,10 +540,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2501</c:v>
+                  <c:v>1876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +760,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -919,13 +918,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10150</c:v>
+                  <c:v>9525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1750</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,10 +979,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2501</c:v>
+                  <c:v>1876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1202,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1611,7 +1610,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4390,7 +4389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4708,18 +4707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2418BEC-7A29-4AC8-A6FA-216FDF0E2686}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4742,7 +4739,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4773,7 +4770,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4806,7 +4803,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4839,7 +4836,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4872,7 +4869,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4894,7 +4891,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4927,12 +4924,12 @@
       </c>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4951,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4978,7 +4975,7 @@
       </c>
       <c r="J12" s="2">
         <f>J13+K12</f>
-        <v>10750</v>
+        <v>10125</v>
       </c>
       <c r="K12" s="2">
         <f>C6*(I12-H12)</f>
@@ -4986,7 +4983,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5010,7 +5007,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ref="J13:J15" si="2">J14+K13</f>
-        <v>10150</v>
+        <v>9525</v>
       </c>
       <c r="K13" s="2">
         <f>(C5+C6)*(I13-H13)</f>
@@ -5018,7 +5015,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <v>40</v>
       </c>
@@ -5027,7 +5024,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="K14" s="2">
         <f>C6*(I14-H14)</f>
@@ -5035,7 +5032,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -5048,14 +5045,14 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>1125</v>
       </c>
       <c r="K15" s="7">
-        <v>1750</v>
+        <v>1125</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -5084,7 +5081,7 @@
       </c>
       <c r="J17" s="6">
         <f>J14+1</f>
-        <v>2501</v>
+        <v>1876</v>
       </c>
       <c r="K17" s="6">
         <v>120</v>
@@ -5093,10 +5090,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J18" s="6">
         <f>J14</f>
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
@@ -5105,29 +5102,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H22" s="13" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5141,7 +5138,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="7" t="s">
         <v>39</v>
       </c>
@@ -5155,7 +5152,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="7" t="s">
         <v>40</v>
       </c>
@@ -5179,24 +5176,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FE521-C5A9-4C6D-9EED-19694A2623F8}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5219,7 +5216,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5250,7 +5247,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +5280,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5316,7 +5313,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -5350,7 +5347,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -5379,8 +5376,8 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2">
@@ -5398,7 +5395,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5420,7 +5417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5441,16 +5438,16 @@
       <c r="I10" s="2">
         <v>220</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f>K10+J11</f>
         <v>11274.999283333333</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f>(I10-H10)*C8</f>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5471,83 +5468,83 @@
       <c r="I11" s="2">
         <v>180</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" ref="J11:J15" si="2">K11+J12</f>
         <v>11208.332616666667</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f>(I11-H11)*(C5+C8)</f>
         <v>5733.3326166666666</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <v>100</v>
       </c>
       <c r="I12" s="2">
         <v>100.00001</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="2"/>
         <v>5475</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f>-F7</f>
         <v>2250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="2">
         <v>90</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f>(I13-H13)*(C8+C5)</f>
         <v>716.66666666666674</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <v>40</v>
       </c>
       <c r="I14" s="2">
         <v>90</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="2"/>
         <v>2508.3333333333335</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f>(I14-H14)*C6</f>
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>40</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K16" s="12"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="11"/>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="14">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="13">
         <f>J19+0.001</f>
         <v>2508.3343333333337</v>
       </c>
@@ -5558,8 +5555,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="14">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="13">
         <f>J14</f>
         <v>2508.3333333333335</v>
       </c>
@@ -5570,29 +5567,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="J20" s="9" t="s">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="H23" s="13" t="s">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G24" s="7" t="s">
         <v>4</v>
       </c>
@@ -5606,31 +5603,31 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>1175</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>1775</v>
       </c>
       <c r="J25" s="7">
         <v>2375</v>
       </c>
     </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>-75</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>-75</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>-75</v>
       </c>
     </row>
